--- a/SensorsSchedulerOut.xlsx
+++ b/SensorsSchedulerOut.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9675" yWindow="-165" windowWidth="10890" windowHeight="8250" activeTab="4"/>
+    <workbookView xWindow="9675" yWindow="-165" windowWidth="10890" windowHeight="8250" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="GeneralData1" sheetId="13" r:id="rId1"/>
@@ -13874,7 +13874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -15800,8 +15800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -15845,38 +15845,38 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3">
-        <v>3.0804146221366548</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>3.0804146221366548</v>
+        <v>6.5</v>
       </c>
       <c r="E4">
-        <v>9.4804146221366548</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -15885,32 +15885,32 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.4804146221366548</v>
+        <v>7.5</v>
       </c>
       <c r="E5">
-        <v>10.230414622136655</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D6">
-        <v>10.230414622136655</v>
+        <v>8</v>
       </c>
       <c r="E6">
-        <v>16.630414622136655</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -15919,61 +15919,61 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>16.630414622136655</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>18.135613944485691</v>
+        <v>9.0902777777777786</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>9.0902777777777786</v>
       </c>
       <c r="E8">
-        <v>4.0804146221366544</v>
+        <v>10.090277777777779</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>4.0804146221366544</v>
+        <v>10.090277777777779</v>
       </c>
       <c r="E9">
-        <v>10.480414622136655</v>
+        <v>10.229166666666668</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10">
-        <v>10.480414622136655</v>
+        <v>10.229166666666668</v>
       </c>
       <c r="E10">
-        <v>12.560829244273309</v>
+        <v>11.229166666666668</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -15987,10 +15987,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>11.229166666666668</v>
       </c>
       <c r="E11">
-        <v>5.7420908992956452</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -15998,16 +15998,16 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D12">
-        <v>5.7420908992956452</v>
+        <v>11.75</v>
       </c>
       <c r="E12">
-        <v>6.6420908992956456</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -16021,10 +16021,10 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>6.6420908992956456</v>
+        <v>13</v>
       </c>
       <c r="E13">
-        <v>7.2872652943238423</v>
+        <v>13.104166666666666</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -16032,106 +16032,106 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="C14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14">
-        <v>7.2872652943238423</v>
+        <v>13.104166666666666</v>
       </c>
       <c r="E14">
-        <v>8.1872652943238418</v>
+        <v>14.604166666666666</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D15">
-        <v>9.7750000000000004</v>
+        <v>8</v>
       </c>
       <c r="E15">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B16">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E16">
-        <v>10.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17">
-        <v>10.9</v>
+        <v>16.25</v>
       </c>
       <c r="E17">
-        <v>11.264434493427832</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>11.264434493427832</v>
+        <v>17.5</v>
       </c>
       <c r="E18">
-        <v>12.164434493427832</v>
+        <v>17.798611111111111</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D19">
-        <v>12.164434493427832</v>
+        <v>17.798611111111111</v>
       </c>
       <c r="E19">
-        <v>14.244849115564486</v>
+        <v>19.548611111111111</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -16140,61 +16140,61 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>4.274558120254083</v>
+        <v>19.548611111111111</v>
       </c>
       <c r="E20">
-        <v>6.75</v>
+        <v>19.819444444444443</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B21">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21">
-        <v>6.75</v>
+        <v>19.819444444444443</v>
       </c>
       <c r="E21">
-        <v>7.65</v>
+        <v>21.069444444444443</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>45</v>
+      </c>
+      <c r="C22">
         <v>4</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
       <c r="D22">
-        <v>7.65</v>
+        <v>19.25</v>
       </c>
       <c r="E22">
-        <v>8.074264068711928</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B23">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>8.074264068711928</v>
+        <v>20.25</v>
       </c>
       <c r="E23">
-        <v>8.9742640687119284</v>
+        <v>28.25</v>
       </c>
     </row>
     <row r="24" spans="1:5">
